--- a/python_version/Database/Database.xlsx
+++ b/python_version/Database/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume\Projets\musicocktails\GIT\musicocktail\python_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume\Projets\musicocktails\GIT\musicocktail\python_version\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC93D9F-263D-497B-9DB8-7E2B6E483757}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D7859-6764-4D5B-9996-88000089A64F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recettes" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Ingredients" sheetId="2" r:id="rId3"/>
     <sheet name="Musiques" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recettes!$A$1:$AS$84</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="626">
   <si>
     <t>name</t>
   </si>
@@ -292,42 +295,6 @@
   </si>
   <si>
     <t>Flavors_Herbaceous</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Ancestrals</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Sours</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Spirit_Forward</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Duos_and_Trios</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Champagne</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Highballs_Collinses_and_Fizzes</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Juleps_and_Smashes</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Hot_Drinks</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Flips_and_Nogs</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Pousse_Family</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Tropical_Style</t>
-  </si>
-  <si>
-    <t>Clarke_broke_Punches</t>
   </si>
   <si>
     <t>Gary_Regan_Beer_Cider_Champagne</t>
@@ -1878,9 +1845,6 @@
     <t>Flavors</t>
   </si>
   <si>
-    <t>Clarke_broke</t>
-  </si>
-  <si>
     <t>Gary_Regan</t>
   </si>
   <si>
@@ -1912,6 +1876,45 @@
   </si>
   <si>
     <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul_clarke </t>
+  </si>
+  <si>
+    <t>Paul_clarke_Ancestrals</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Sours</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Spirit_Forward</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Duos_and_Trios</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Champagne</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Highballs_Collinses_and_Fizzes</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Juleps_and_Smashes</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Hot_Drinks</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Flips_and_Nogs</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Pousse_Family</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Tropical_Style</t>
+  </si>
+  <si>
+    <t>Paul_clarke_Punches</t>
   </si>
 </sst>
 </file>
@@ -2341,23 +2344,25 @@
   </sheetPr>
   <dimension ref="A1:FB539"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.71875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.5546875" customWidth="1"/>
+    <col min="3" max="3" width="0.77734375" customWidth="1"/>
+    <col min="4" max="4" width="0.71875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.71875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.71875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.71875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.71875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.21875" customWidth="1"/>
+    <col min="8" max="34" width="0.109375" customWidth="1"/>
+    <col min="35" max="35" width="22.33203125" customWidth="1"/>
+    <col min="36" max="36" width="20.5" customWidth="1"/>
+    <col min="37" max="37" width="21.5546875" customWidth="1"/>
+    <col min="38" max="38" width="13.609375" customWidth="1"/>
     <col min="39" max="39" width="7.71875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.71875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.109375" customWidth="1"/>
     <col min="41" max="41" width="10.71875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3.71875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6.71875" bestFit="1" customWidth="1"/>
@@ -2469,37 +2474,37 @@
         <v>33</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="AM1" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="AO1" s="3" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
@@ -2617,52 +2622,52 @@
     </row>
     <row r="2" spans="1:158" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T2" s="9">
         <v>473</v>
@@ -2671,104 +2676,112 @@
         <v>45</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+        <v>161</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
+      <c r="AM2" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T3" s="9">
         <v>15</v>
@@ -2795,25 +2808,25 @@
         <v>230</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -2823,58 +2836,58 @@
     </row>
     <row r="4" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>179</v>
       </c>
-      <c r="G4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" t="s">
-        <v>191</v>
-      </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T4" s="9">
         <v>45</v>
@@ -2889,37 +2902,37 @@
         <v>45</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
@@ -2929,58 +2942,58 @@
     </row>
     <row r="5" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T5" s="9">
         <v>15</v>
@@ -3007,25 +3020,25 @@
         <v>8</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
@@ -3035,58 +3048,58 @@
     </row>
     <row r="6" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T6" s="9">
         <v>15</v>
@@ -3101,37 +3114,37 @@
         <v>15</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
@@ -3141,58 +3154,58 @@
     </row>
     <row r="7" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T7" s="9">
         <v>22</v>
@@ -3201,43 +3214,43 @@
         <v>22</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
@@ -3247,58 +3260,58 @@
     </row>
     <row r="8" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T8" s="9">
         <v>10</v>
@@ -3310,40 +3323,40 @@
         <v>10</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
@@ -3353,58 +3366,58 @@
     </row>
     <row r="9" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="N9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T9" s="9">
         <v>15</v>
@@ -3422,7 +3435,7 @@
         <v>15</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Z9" s="9">
         <v>2</v>
@@ -3431,25 +3444,25 @@
         <v>0</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -3459,58 +3472,58 @@
     </row>
     <row r="10" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T10" s="9">
         <v>75</v>
@@ -3519,43 +3532,43 @@
         <v>180</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
@@ -3565,58 +3578,58 @@
     </row>
     <row r="11" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
         <v>219</v>
       </c>
-      <c r="E11" t="s">
-        <v>231</v>
-      </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T11" s="9">
         <v>75</v>
@@ -3628,40 +3641,40 @@
         <v>200</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -3671,58 +3684,58 @@
     </row>
     <row r="12" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T12" s="9">
         <v>30</v>
@@ -3731,43 +3744,43 @@
         <v>30</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
@@ -3777,58 +3790,58 @@
     </row>
     <row r="13" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T13" s="9">
         <v>60</v>
@@ -3840,40 +3853,40 @@
         <v>23</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
@@ -3883,58 +3896,58 @@
     </row>
     <row r="14" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T14" s="9">
         <v>70</v>
@@ -3946,40 +3959,40 @@
         <v>70</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
@@ -3989,58 +4002,58 @@
     </row>
     <row r="15" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T15" s="9">
         <v>60</v>
@@ -4055,37 +4068,37 @@
         <v>30</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB15" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH15" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
@@ -4095,58 +4108,58 @@
     </row>
     <row r="16" spans="1:158" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T16" s="9">
         <v>30</v>
@@ -4161,37 +4174,37 @@
         <v>15</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
@@ -4201,58 +4214,58 @@
     </row>
     <row r="17" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T17" s="9">
         <v>60</v>
@@ -4264,40 +4277,40 @@
         <v>2</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
@@ -4307,58 +4320,58 @@
     </row>
     <row r="18" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T18" s="9">
         <v>30</v>
@@ -4373,37 +4386,37 @@
         <v>90</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH18" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
@@ -4413,58 +4426,58 @@
     </row>
     <row r="19" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I19" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T19" s="9">
         <v>60</v>
@@ -4476,40 +4489,40 @@
         <v>6</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
@@ -4519,58 +4532,58 @@
     </row>
     <row r="20" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" t="s">
         <v>179</v>
       </c>
-      <c r="F20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" t="s">
-        <v>191</v>
-      </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="J20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T20" s="9">
         <v>30</v>
@@ -4591,31 +4604,31 @@
         <v>2</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH20" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
@@ -4625,58 +4638,58 @@
     </row>
     <row r="21" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H21" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T21" s="9">
         <v>45</v>
@@ -4688,40 +4701,40 @@
         <v>100</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH21" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
@@ -4731,58 +4744,58 @@
     </row>
     <row r="22" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T22" s="9">
         <v>60</v>
@@ -4797,37 +4810,37 @@
         <v>15</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH22" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
@@ -4837,58 +4850,58 @@
     </row>
     <row r="23" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H23" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T23" s="9">
         <v>45</v>
@@ -4897,43 +4910,43 @@
         <v>1</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH23" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
@@ -4943,58 +4956,58 @@
     </row>
     <row r="24" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T24" s="9">
         <v>15</v>
@@ -5003,43 +5016,43 @@
         <v>30</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH24" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
@@ -5049,58 +5062,58 @@
     </row>
     <row r="25" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T25" s="9">
         <v>15</v>
@@ -5115,37 +5128,37 @@
         <v>50</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH25" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
@@ -5155,58 +5168,58 @@
     </row>
     <row r="26" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T26" s="9">
         <v>33</v>
@@ -5221,37 +5234,37 @@
         <v>5</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH26" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
@@ -5261,55 +5274,55 @@
     </row>
     <row r="27" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F27" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T27" s="9">
         <v>15</v>
@@ -5322,37 +5335,37 @@
       </c>
       <c r="W27" s="9"/>
       <c r="X27" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH27" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -5362,58 +5375,58 @@
     </row>
     <row r="28" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T28" s="9">
         <v>90</v>
@@ -5428,37 +5441,37 @@
         <v>9</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH28" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
@@ -5468,58 +5481,58 @@
     </row>
     <row r="29" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S29" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T29" s="9">
         <v>80</v>
@@ -5531,40 +5544,40 @@
         <v>80</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH29" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
@@ -5574,58 +5587,58 @@
     </row>
     <row r="30" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T30" s="9">
         <v>15</v>
@@ -5637,40 +5650,40 @@
         <v>90</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH30" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
@@ -5680,58 +5693,58 @@
     </row>
     <row r="31" spans="1:39" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H31" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T31" s="9">
         <v>180</v>
@@ -5740,43 +5753,43 @@
         <v>70</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH31" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
@@ -5786,58 +5799,58 @@
     </row>
     <row r="32" spans="1:39" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H32" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T32" s="9">
         <v>170</v>
@@ -5852,37 +5865,37 @@
         <v>0</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF32" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH32" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
@@ -5892,58 +5905,58 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T33" s="9">
         <v>120</v>
@@ -5958,37 +5971,37 @@
         <v>3</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC33" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG33" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH33" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
@@ -5998,58 +6011,58 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T34" s="9">
         <v>15</v>
@@ -6067,34 +6080,34 @@
         <v>15</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC34" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH34" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
@@ -6104,58 +6117,58 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H35" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T35" s="9">
         <v>15</v>
@@ -6173,34 +6186,34 @@
         <v>0</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD35" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE35" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH35" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
@@ -6210,58 +6223,58 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T36" s="9">
         <v>60</v>
@@ -6276,37 +6289,37 @@
         <v>0</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG36" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH36" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
@@ -6316,58 +6329,58 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S37" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T37" s="9">
         <v>45</v>
@@ -6379,40 +6392,40 @@
         <v>0</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9"/>
@@ -6422,58 +6435,58 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G38" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H38" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T38" s="9">
         <v>45</v>
@@ -6488,37 +6501,37 @@
         <v>0</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD38" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH38" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
@@ -6528,58 +6541,58 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H39" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T39" s="9">
         <v>15</v>
@@ -6597,34 +6610,34 @@
         <v>0</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD39" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH39" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
@@ -6634,58 +6647,58 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C40" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S40" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T40" s="9">
         <v>90</v>
@@ -6703,34 +6716,34 @@
         <v>0</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH40" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9"/>
@@ -6740,58 +6753,58 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S41" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T41" s="9">
         <v>60</v>
@@ -6803,40 +6816,40 @@
         <v>6</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X41" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH41" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
@@ -6846,58 +6859,58 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H42" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T42" s="9">
         <v>45</v>
@@ -6912,37 +6925,37 @@
         <v>6</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH42" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
@@ -6952,58 +6965,58 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C43" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E43" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J43" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T43" s="9">
         <v>70</v>
@@ -7018,35 +7031,35 @@
         <v>30</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AD43" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG43" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH43" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9"/>
@@ -7056,58 +7069,58 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C44" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="H44" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T44" s="9">
         <v>70</v>
@@ -7122,37 +7135,37 @@
         <v>50</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y44" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA44" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH44" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
@@ -7162,58 +7175,58 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T45" s="9">
         <v>90</v>
@@ -7225,40 +7238,40 @@
         <v>120</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AB45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AD45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH45" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI45" s="9"/>
       <c r="AJ45" s="9"/>
@@ -7280,13 +7293,13 @@
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
       <c r="AF46" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG46" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH46" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
@@ -7308,13 +7321,13 @@
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH47" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI47" s="9"/>
       <c r="AJ47" s="9"/>
@@ -7336,13 +7349,13 @@
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG48" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH48" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="9"/>
@@ -7364,13 +7377,13 @@
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
       <c r="AF49" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG49" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH49" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI49" s="9"/>
       <c r="AJ49" s="9"/>
@@ -7392,13 +7405,13 @@
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
       <c r="AF50" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG50" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH50" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI50" s="9"/>
       <c r="AJ50" s="9"/>
@@ -7420,13 +7433,13 @@
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
       <c r="AF51" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG51" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH51" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9"/>
@@ -7448,13 +7461,13 @@
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
       <c r="AF52" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG52" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH52" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI52" s="9"/>
       <c r="AJ52" s="9"/>
@@ -7476,13 +7489,13 @@
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
       <c r="AF53" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG53" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH53" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
@@ -7504,13 +7517,13 @@
       <c r="AD54" s="9"/>
       <c r="AE54" s="9"/>
       <c r="AF54" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG54" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH54" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI54" s="9"/>
       <c r="AJ54" s="9"/>
@@ -7532,13 +7545,13 @@
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
       <c r="AF55" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG55" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH55" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI55" s="9"/>
       <c r="AJ55" s="9"/>
@@ -7560,13 +7573,13 @@
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
       <c r="AF56" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG56" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH56" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="9"/>
@@ -7588,13 +7601,13 @@
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
       <c r="AF57" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG57" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH57" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI57" s="9"/>
       <c r="AJ57" s="9"/>
@@ -7616,13 +7629,13 @@
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG58" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH58" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
@@ -7644,13 +7657,13 @@
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
       <c r="AF59" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG59" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH59" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI59" s="9"/>
       <c r="AJ59" s="9"/>
@@ -7672,13 +7685,13 @@
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
       <c r="AF60" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG60" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH60" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI60" s="9"/>
       <c r="AJ60" s="9"/>
@@ -7700,13 +7713,13 @@
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
       <c r="AF61" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG61" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH61" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
@@ -7728,13 +7741,13 @@
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
       <c r="AF62" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG62" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH62" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
@@ -7756,13 +7769,13 @@
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
       <c r="AF63" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG63" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH63" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
@@ -7784,13 +7797,13 @@
       <c r="AD64" s="9"/>
       <c r="AE64" s="9"/>
       <c r="AF64" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG64" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH64" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
@@ -7812,13 +7825,13 @@
       <c r="AD65" s="9"/>
       <c r="AE65" s="9"/>
       <c r="AF65" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG65" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH65" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
@@ -7840,13 +7853,13 @@
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
       <c r="AF66" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG66" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH66" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
@@ -7868,13 +7881,13 @@
       <c r="AD67" s="9"/>
       <c r="AE67" s="9"/>
       <c r="AF67" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG67" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH67" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
@@ -7896,13 +7909,13 @@
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
       <c r="AF68" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG68" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH68" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
@@ -7924,13 +7937,13 @@
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
       <c r="AF69" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG69" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH69" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
@@ -7952,13 +7965,13 @@
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
       <c r="AF70" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG70" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH70" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
@@ -7980,13 +7993,13 @@
       <c r="AD71" s="9"/>
       <c r="AE71" s="9"/>
       <c r="AF71" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG71" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH71" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
@@ -8008,13 +8021,13 @@
       <c r="AD72" s="9"/>
       <c r="AE72" s="9"/>
       <c r="AF72" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AG72" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AH72" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
@@ -8036,13 +8049,13 @@
       <c r="AD73" s="9"/>
       <c r="AE73" s="9"/>
       <c r="AF73" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG73" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH73" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI73" s="9"/>
       <c r="AJ73" s="9"/>
@@ -8064,13 +8077,13 @@
       <c r="AD74" s="9"/>
       <c r="AE74" s="9"/>
       <c r="AF74" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG74" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH74" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
@@ -8092,13 +8105,13 @@
       <c r="AD75" s="9"/>
       <c r="AE75" s="9"/>
       <c r="AF75" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI75" s="9"/>
       <c r="AJ75" s="9"/>
@@ -8120,13 +8133,13 @@
       <c r="AD76" s="9"/>
       <c r="AE76" s="9"/>
       <c r="AF76" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG76" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH76" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI76" s="9"/>
       <c r="AJ76" s="9"/>
@@ -8148,13 +8161,13 @@
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
       <c r="AF77" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG77" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH77" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI77" s="9"/>
       <c r="AJ77" s="9"/>
@@ -8176,13 +8189,13 @@
       <c r="AD78" s="9"/>
       <c r="AE78" s="9"/>
       <c r="AF78" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG78" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH78" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI78" s="9"/>
       <c r="AJ78" s="9"/>
@@ -8204,13 +8217,13 @@
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
       <c r="AF79" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG79" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH79" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
@@ -8232,13 +8245,13 @@
       <c r="AD80" s="9"/>
       <c r="AE80" s="9"/>
       <c r="AF80" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG80" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH80" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
@@ -8260,13 +8273,13 @@
       <c r="AD81" s="9"/>
       <c r="AE81" s="9"/>
       <c r="AF81" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG81" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH81" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
@@ -8288,13 +8301,13 @@
       <c r="AD82" s="9"/>
       <c r="AE82" s="9"/>
       <c r="AF82" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG82" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH82" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI82" s="9"/>
       <c r="AJ82" s="9"/>
@@ -8316,13 +8329,13 @@
       <c r="AD83" s="9"/>
       <c r="AE83" s="9"/>
       <c r="AF83" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG83" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH83" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI83" s="9"/>
       <c r="AJ83" s="9"/>
@@ -8344,13 +8357,13 @@
       <c r="AD84" s="9"/>
       <c r="AE84" s="9"/>
       <c r="AF84" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG84" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AH84" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AI84" s="9"/>
       <c r="AJ84" s="9"/>
@@ -15436,7 +15449,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -15468,22 +15481,22 @@
         <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="H1" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15503,22 +15516,22 @@
         <v>80</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15538,22 +15551,22 @@
         <v>81</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15573,19 +15586,19 @@
         <v>82</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I4" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15605,19 +15618,19 @@
         <v>83</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="I5" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15637,19 +15650,19 @@
         <v>84</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="I6" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15669,19 +15682,19 @@
         <v>85</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15698,19 +15711,19 @@
         <v>86</v>
       </c>
       <c r="F8" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="I8" s="13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15724,19 +15737,19 @@
         <v>72</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="I9" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15747,19 +15760,19 @@
         <v>73</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="I10" s="13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15770,19 +15783,19 @@
         <v>74</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="I11" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15793,16 +15806,16 @@
         <v>75</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="J12" s="13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15813,13 +15826,13 @@
         <v>76</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15830,10 +15843,10 @@
         <v>77</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
@@ -15841,22 +15854,22 @@
         <v>78</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.6" x14ac:dyDescent="0.4">
       <c r="G16" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="7:7" ht="12.6" x14ac:dyDescent="0.4">
       <c r="G17" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="7:7" ht="12.6" x14ac:dyDescent="0.4">
       <c r="G18" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -15869,7 +15882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
@@ -15884,26 +15897,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>1800</v>
@@ -15911,11 +15924,11 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>1800</v>
@@ -15923,10 +15936,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>600</v>
@@ -15934,10 +15947,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>1100</v>
@@ -15945,10 +15958,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E6">
         <v>1550</v>
@@ -15956,10 +15969,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E7">
         <v>1940</v>
@@ -15967,10 +15980,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E8">
         <v>1600</v>
@@ -15978,10 +15991,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E9">
         <v>1600</v>
@@ -15989,10 +16002,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E10">
         <v>1600</v>
@@ -16000,10 +16013,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D11" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E11">
         <v>1600</v>
@@ -16011,10 +16024,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D12" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -16022,10 +16035,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E13">
         <v>1834</v>
@@ -16033,10 +16046,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E14">
         <v>1880</v>
@@ -16044,10 +16057,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E15">
         <v>1850</v>
@@ -16055,10 +16068,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E16">
         <v>1500</v>
@@ -16066,10 +16079,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E17">
         <v>1600</v>
@@ -16077,10 +16090,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E18">
         <v>1400</v>
@@ -16088,10 +16101,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D19" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E19">
         <v>1850</v>
@@ -16099,10 +16112,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E20">
         <v>1800</v>
@@ -16110,10 +16123,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E21">
         <v>1800</v>
@@ -16121,10 +16134,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E22">
         <v>1800</v>
@@ -16132,10 +16145,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E23">
         <v>1800</v>
@@ -16143,10 +16156,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E24">
         <v>1800</v>
@@ -16154,10 +16167,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D25" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E25">
         <v>1600</v>
@@ -16165,10 +16178,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E26">
         <v>1935</v>
@@ -16176,10 +16189,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E27">
         <v>1960</v>
@@ -16187,10 +16200,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -16198,10 +16211,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -16209,10 +16222,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E30">
         <v>1850</v>
@@ -16220,10 +16233,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D31" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E31">
         <v>1760</v>
@@ -16231,10 +16244,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D32" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E32">
         <v>1900</v>
@@ -16242,10 +16255,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D33" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E33">
         <v>1800</v>
@@ -16253,10 +16266,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E34">
         <v>1800</v>
@@ -16264,10 +16277,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D35" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E35">
         <v>1900</v>
@@ -16275,10 +16288,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D36" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E36">
         <v>1900</v>
@@ -16286,10 +16299,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E37">
         <v>1980</v>
@@ -16297,10 +16310,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D38" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E38">
         <v>1850</v>
@@ -16308,10 +16321,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D39" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E39">
         <v>1920</v>
@@ -16319,10 +16332,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D40" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E40">
         <v>1870</v>
@@ -16330,10 +16343,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E41">
         <v>1500</v>
@@ -16341,10 +16354,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E42">
         <v>1600</v>
@@ -16352,10 +16365,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E43">
         <v>1980</v>
@@ -16363,10 +16376,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D44" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -16374,10 +16387,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E45">
         <v>1700</v>
@@ -16385,10 +16398,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E46">
         <v>1700</v>
@@ -16396,10 +16409,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D47" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="E47">
         <v>1750</v>
@@ -16407,10 +16420,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D48" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E48">
         <v>1400</v>
@@ -16418,10 +16431,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D49" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E49">
         <v>1000</v>
@@ -16429,10 +16442,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D50" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E50">
         <v>1500</v>
@@ -16440,10 +16453,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E51">
         <v>1910</v>
@@ -16451,10 +16464,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -16462,10 +16475,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D53" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -16473,10 +16486,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E54">
         <v>1950</v>
@@ -16484,10 +16497,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E55">
         <v>1970</v>
@@ -16495,10 +16508,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D56" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E56">
         <v>1870</v>
@@ -16506,10 +16519,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D57" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E57">
         <v>1880</v>
@@ -16517,10 +16530,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D58" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E58">
         <v>1940</v>
@@ -16528,10 +16541,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E59">
         <v>1870</v>
@@ -16539,10 +16552,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E60">
         <v>1930</v>
@@ -16550,10 +16563,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D61" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E61">
         <v>1990</v>
@@ -16561,10 +16574,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E62">
         <v>1800</v>
@@ -16572,10 +16585,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D63" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E63">
         <v>1940</v>
@@ -16583,10 +16596,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D64" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E64">
         <v>1997</v>
@@ -16594,10 +16607,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D65" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E65">
         <v>1880</v>
@@ -16605,10 +16618,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E66">
         <v>1970</v>
@@ -16616,10 +16629,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D67" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E67">
         <v>2007</v>
@@ -16627,7 +16640,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -16635,7 +16648,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -16643,7 +16656,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -16651,7 +16664,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -16659,7 +16672,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -16667,7 +16680,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -16675,7 +16688,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -16683,7 +16696,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -16691,7 +16704,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -16699,7 +16712,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -16707,7 +16720,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -16715,7 +16728,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -16723,7 +16736,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -16731,7 +16744,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -16739,7 +16752,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -16747,7 +16760,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -16755,7 +16768,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -16763,7 +16776,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -16771,7 +16784,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -16779,7 +16792,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -16787,7 +16800,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -16795,7 +16808,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -16803,7 +16816,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -16811,7 +16824,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -16819,7 +16832,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -16827,7 +16840,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -16835,7 +16848,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -16843,7 +16856,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -16851,7 +16864,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -16859,7 +16872,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -16867,7 +16880,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -16875,7 +16888,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -16883,7 +16896,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -16891,7 +16904,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -16899,7 +16912,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -16907,7 +16920,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -16915,7 +16928,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -16923,7 +16936,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -16931,7 +16944,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -16939,7 +16952,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -16947,7 +16960,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -16955,7 +16968,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -16963,7 +16976,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -16971,7 +16984,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -16979,7 +16992,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -16987,7 +17000,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -16995,7 +17008,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -17003,7 +17016,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E115">
         <v>1990</v>
@@ -17011,7 +17024,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E116">
         <v>1990</v>
@@ -17019,7 +17032,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E117">
         <v>1990</v>
@@ -17027,7 +17040,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -17035,7 +17048,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="E119">
         <v>1990</v>
@@ -17043,7 +17056,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -17051,7 +17064,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -17059,7 +17072,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -17067,7 +17080,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -17075,7 +17088,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -17083,7 +17096,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -17091,7 +17104,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -17099,7 +17112,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -17107,7 +17120,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -17115,7 +17128,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -17123,7 +17136,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -17131,7 +17144,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -17139,7 +17152,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -17147,7 +17160,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -17155,7 +17168,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -17163,7 +17176,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -17171,7 +17184,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -17179,7 +17192,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -17187,7 +17200,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -17195,7 +17208,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -17203,7 +17216,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -17211,7 +17224,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -17219,7 +17232,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -17227,7 +17240,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -17235,7 +17248,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -17243,7 +17256,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -17251,7 +17264,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -17259,7 +17272,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -17267,7 +17280,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -17275,7 +17288,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -17283,7 +17296,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -17291,7 +17304,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -17299,7 +17312,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -17307,7 +17320,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -17315,7 +17328,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -17323,7 +17336,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -17331,7 +17344,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -17339,7 +17352,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -17347,7 +17360,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -17355,7 +17368,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -17363,7 +17376,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -17371,7 +17384,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -17379,7 +17392,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -17387,7 +17400,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -17395,7 +17408,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -17403,7 +17416,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -17411,7 +17424,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -17419,7 +17432,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -17427,7 +17440,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -17435,7 +17448,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -17443,7 +17456,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -17451,7 +17464,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -17459,7 +17472,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -17467,7 +17480,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -17475,7 +17488,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -17483,7 +17496,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -17491,7 +17504,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -17499,7 +17512,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -17507,7 +17520,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -17515,7 +17528,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -17523,7 +17536,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -17531,7 +17544,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -17539,7 +17552,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -17547,7 +17560,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -17555,7 +17568,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -17563,7 +17576,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -17571,7 +17584,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -17579,7 +17592,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -17587,7 +17600,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -17595,7 +17608,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -17603,7 +17616,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -17611,7 +17624,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -17619,7 +17632,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -17627,7 +17640,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -17635,7 +17648,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -17643,7 +17656,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -17651,7 +17664,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -17659,7 +17672,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -17667,7 +17680,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -17675,7 +17688,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -17683,7 +17696,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -17691,7 +17704,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -17699,7 +17712,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -17707,7 +17720,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -17715,7 +17728,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -17723,7 +17736,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -17731,7 +17744,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -17739,7 +17752,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -17747,7 +17760,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -17755,7 +17768,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -17763,7 +17776,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -17771,7 +17784,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -17779,7 +17792,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -17787,7 +17800,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -17795,7 +17808,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -17803,7 +17816,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -17811,7 +17824,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -17819,7 +17832,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -17827,7 +17840,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -17835,7 +17848,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -17843,7 +17856,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -17851,7 +17864,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -17859,7 +17872,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -17867,7 +17880,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -17875,7 +17888,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -17883,7 +17896,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -17891,7 +17904,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -17899,7 +17912,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -17907,7 +17920,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -17915,7 +17928,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -17923,7 +17936,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -17931,7 +17944,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -17939,7 +17952,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -17947,7 +17960,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -17955,7 +17968,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -17963,7 +17976,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -17971,7 +17984,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -17979,7 +17992,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -17987,7 +18000,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -17995,7 +18008,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -18003,7 +18016,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -18011,7 +18024,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -18019,7 +18032,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -18027,7 +18040,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -18035,7 +18048,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -18043,7 +18056,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -18051,7 +18064,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -18059,7 +18072,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -18067,7 +18080,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -18075,7 +18088,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -18083,7 +18096,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -18091,7 +18104,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -18099,7 +18112,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -18107,7 +18120,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -18115,7 +18128,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -18123,7 +18136,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -18131,7 +18144,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -18139,7 +18152,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -18147,7 +18160,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -18155,7 +18168,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E259">
         <v>1500</v>
@@ -18163,7 +18176,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -18171,7 +18184,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -18179,7 +18192,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -18187,7 +18200,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -18195,7 +18208,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -18203,7 +18216,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -18211,7 +18224,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -18219,7 +18232,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -18227,7 +18240,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -18235,7 +18248,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -18243,7 +18256,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -18251,7 +18264,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -18259,7 +18272,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -18267,7 +18280,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -18275,7 +18288,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -18283,7 +18296,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -18291,7 +18304,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -18299,7 +18312,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -18307,7 +18320,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -18315,7 +18328,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -18323,7 +18336,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -18331,7 +18344,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -18339,7 +18352,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -18347,7 +18360,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -18355,7 +18368,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -18363,7 +18376,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -18371,7 +18384,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -18379,7 +18392,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -18387,7 +18400,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -18395,7 +18408,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -18403,7 +18416,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -18411,7 +18424,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -18419,7 +18432,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -18427,7 +18440,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -18435,7 +18448,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -18443,7 +18456,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -18451,7 +18464,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -18459,7 +18472,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -18467,7 +18480,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -18475,7 +18488,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -18483,7 +18496,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -18491,7 +18504,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -18499,7 +18512,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -18507,7 +18520,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -18515,7 +18528,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -18523,7 +18536,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -18531,7 +18544,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -18546,7 +18559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -18554,43 +18567,43 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E2">
         <v>1723</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/python_version/Database/Database.xlsx
+++ b/python_version/Database/Database.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume\Projets\musicocktails\GIT\musicocktail\python_version\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D7859-6764-4D5B-9996-88000089A64F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47555846-263E-4280-8D60-0EFBBBC7A9BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recettes" sheetId="1" r:id="rId1"/>
-    <sheet name="parametrages" sheetId="4" r:id="rId2"/>
-    <sheet name="Ingredients" sheetId="2" r:id="rId3"/>
-    <sheet name="Musiques" sheetId="3" r:id="rId4"/>
+    <sheet name="Recette_dyn" sheetId="5" r:id="rId2"/>
+    <sheet name="parametrages" sheetId="4" r:id="rId3"/>
+    <sheet name="Ingredients" sheetId="2" r:id="rId4"/>
+    <sheet name="Musiques" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recettes!$A$1:$AS$84</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="626">
   <si>
     <t>name</t>
   </si>
@@ -2344,8 +2345,8 @@
   </sheetPr>
   <dimension ref="A1:FB539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection sqref="A1:AS84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -5691,7 +5692,7 @@
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
     </row>
-    <row r="31" spans="1:39" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:39" ht="73.8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>308</v>
       </c>
@@ -15445,6 +15446,6764 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417ECF6-BC74-4501-9F18-BCF8E36F9848}">
+  <dimension ref="A1:CF84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>247</v>
+      </c>
+      <c r="R3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" t="s">
+        <v>254</v>
+      </c>
+      <c r="T3" t="s">
+        <v>260</v>
+      </c>
+      <c r="U3" t="s">
+        <v>264</v>
+      </c>
+      <c r="V3" t="s">
+        <v>268</v>
+      </c>
+      <c r="W3" t="s">
+        <v>272</v>
+      </c>
+      <c r="X3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>226</v>
+      </c>
+      <c r="R4" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" t="s">
+        <v>207</v>
+      </c>
+      <c r="T4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V4" t="s">
+        <v>226</v>
+      </c>
+      <c r="W4" t="s">
+        <v>182</v>
+      </c>
+      <c r="X4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>167</v>
+      </c>
+      <c r="R5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S5" t="s">
+        <v>178</v>
+      </c>
+      <c r="T5" t="s">
+        <v>167</v>
+      </c>
+      <c r="U5" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" t="s">
+        <v>188</v>
+      </c>
+      <c r="W5" t="s">
+        <v>187</v>
+      </c>
+      <c r="X5" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" t="s">
+        <v>223</v>
+      </c>
+      <c r="N6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>248</v>
+      </c>
+      <c r="R6" t="s">
+        <v>252</v>
+      </c>
+      <c r="S6" t="s">
+        <v>255</v>
+      </c>
+      <c r="T6" t="s">
+        <v>261</v>
+      </c>
+      <c r="U6" t="s">
+        <v>265</v>
+      </c>
+      <c r="V6" t="s">
+        <v>269</v>
+      </c>
+      <c r="W6" t="s">
+        <v>212</v>
+      </c>
+      <c r="X6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" t="s">
+        <v>235</v>
+      </c>
+      <c r="O7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>249</v>
+      </c>
+      <c r="R7" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" t="s">
+        <v>241</v>
+      </c>
+      <c r="T7" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" t="s">
+        <v>186</v>
+      </c>
+      <c r="W7" t="s">
+        <v>266</v>
+      </c>
+      <c r="X7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" t="s">
+        <v>256</v>
+      </c>
+      <c r="T8" t="s">
+        <v>230</v>
+      </c>
+      <c r="U8" t="s">
+        <v>222</v>
+      </c>
+      <c r="V8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W8" t="s">
+        <v>273</v>
+      </c>
+      <c r="X8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>347</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T9" t="s">
+        <v>262</v>
+      </c>
+      <c r="U9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" t="s">
+        <v>161</v>
+      </c>
+      <c r="S10" t="s">
+        <v>161</v>
+      </c>
+      <c r="T10" t="s">
+        <v>249</v>
+      </c>
+      <c r="U10" t="s">
+        <v>161</v>
+      </c>
+      <c r="V10" t="s">
+        <v>161</v>
+      </c>
+      <c r="W10" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S11" t="s">
+        <v>161</v>
+      </c>
+      <c r="T11" t="s">
+        <v>161</v>
+      </c>
+      <c r="U11" t="s">
+        <v>161</v>
+      </c>
+      <c r="V11" t="s">
+        <v>161</v>
+      </c>
+      <c r="W11" t="s">
+        <v>161</v>
+      </c>
+      <c r="X11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" t="s">
+        <v>161</v>
+      </c>
+      <c r="P12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T12" t="s">
+        <v>161</v>
+      </c>
+      <c r="U12" t="s">
+        <v>161</v>
+      </c>
+      <c r="V12" t="s">
+        <v>161</v>
+      </c>
+      <c r="W12" t="s">
+        <v>161</v>
+      </c>
+      <c r="X12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" t="s">
+        <v>161</v>
+      </c>
+      <c r="O13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" t="s">
+        <v>161</v>
+      </c>
+      <c r="S13" t="s">
+        <v>161</v>
+      </c>
+      <c r="T13" t="s">
+        <v>161</v>
+      </c>
+      <c r="U13" t="s">
+        <v>161</v>
+      </c>
+      <c r="V13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W13" t="s">
+        <v>161</v>
+      </c>
+      <c r="X13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R14" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" t="s">
+        <v>161</v>
+      </c>
+      <c r="V14" t="s">
+        <v>161</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" t="s">
+        <v>161</v>
+      </c>
+      <c r="S15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T15" t="s">
+        <v>161</v>
+      </c>
+      <c r="U15" t="s">
+        <v>161</v>
+      </c>
+      <c r="V15" t="s">
+        <v>161</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" t="s">
+        <v>161</v>
+      </c>
+      <c r="S16" t="s">
+        <v>161</v>
+      </c>
+      <c r="T16" t="s">
+        <v>161</v>
+      </c>
+      <c r="U16" t="s">
+        <v>161</v>
+      </c>
+      <c r="V16" t="s">
+        <v>161</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" t="s">
+        <v>161</v>
+      </c>
+      <c r="S17" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" t="s">
+        <v>161</v>
+      </c>
+      <c r="U17" t="s">
+        <v>161</v>
+      </c>
+      <c r="V17" t="s">
+        <v>161</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" t="s">
+        <v>161</v>
+      </c>
+      <c r="S18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" t="s">
+        <v>161</v>
+      </c>
+      <c r="U18" t="s">
+        <v>161</v>
+      </c>
+      <c r="V18" t="s">
+        <v>161</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" t="s">
+        <v>161</v>
+      </c>
+      <c r="S19" t="s">
+        <v>161</v>
+      </c>
+      <c r="T19" t="s">
+        <v>161</v>
+      </c>
+      <c r="U19" t="s">
+        <v>161</v>
+      </c>
+      <c r="V19" t="s">
+        <v>161</v>
+      </c>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>473</v>
+      </c>
+      <c r="C20" s="9">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <v>75</v>
+      </c>
+      <c r="K20" s="9">
+        <v>75</v>
+      </c>
+      <c r="L20" s="9">
+        <v>30</v>
+      </c>
+      <c r="M20" s="9">
+        <v>60</v>
+      </c>
+      <c r="N20" s="9">
+        <v>70</v>
+      </c>
+      <c r="O20" s="9">
+        <v>60</v>
+      </c>
+      <c r="P20" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>60</v>
+      </c>
+      <c r="R20" s="9">
+        <v>30</v>
+      </c>
+      <c r="S20" s="9">
+        <v>60</v>
+      </c>
+      <c r="T20" s="9">
+        <v>30</v>
+      </c>
+      <c r="U20" s="9">
+        <v>45</v>
+      </c>
+      <c r="V20" s="9">
+        <v>60</v>
+      </c>
+      <c r="W20" s="9">
+        <v>45</v>
+      </c>
+      <c r="X20" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>33</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>90</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>80</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>15</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>180</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>170</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>120</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>15</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>15</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>60</v>
+      </c>
+      <c r="AK20" s="9">
+        <v>45</v>
+      </c>
+      <c r="AL20" s="9">
+        <v>45</v>
+      </c>
+      <c r="AM20" s="9">
+        <v>15</v>
+      </c>
+      <c r="AN20" s="9">
+        <v>90</v>
+      </c>
+      <c r="AO20" s="9">
+        <v>60</v>
+      </c>
+      <c r="AP20" s="9">
+        <v>45</v>
+      </c>
+      <c r="AQ20" s="9">
+        <v>70</v>
+      </c>
+      <c r="AR20" s="9">
+        <v>70</v>
+      </c>
+      <c r="AS20" s="9">
+        <v>90</v>
+      </c>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+    </row>
+    <row r="21" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9">
+        <v>90</v>
+      </c>
+      <c r="E21" s="9">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9">
+        <v>15</v>
+      </c>
+      <c r="G21" s="9">
+        <v>22</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9">
+        <v>15</v>
+      </c>
+      <c r="J21" s="9">
+        <v>180</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>30</v>
+      </c>
+      <c r="M21" s="9">
+        <v>120</v>
+      </c>
+      <c r="N21" s="9">
+        <v>70</v>
+      </c>
+      <c r="O21" s="9">
+        <v>15</v>
+      </c>
+      <c r="P21" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>120</v>
+      </c>
+      <c r="R21" s="9">
+        <v>30</v>
+      </c>
+      <c r="S21" s="9">
+        <v>30</v>
+      </c>
+      <c r="T21" s="9">
+        <v>30</v>
+      </c>
+      <c r="U21" s="9">
+        <v>45</v>
+      </c>
+      <c r="V21" s="9">
+        <v>60</v>
+      </c>
+      <c r="W21" s="9">
+        <v>1</v>
+      </c>
+      <c r="X21" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>120</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>80</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>60</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>70</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>80</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>120</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>15</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>120</v>
+      </c>
+      <c r="AJ21" s="9">
+        <v>120</v>
+      </c>
+      <c r="AK21" s="9">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="9">
+        <v>45</v>
+      </c>
+      <c r="AM21" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="9">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="9">
+        <v>30</v>
+      </c>
+      <c r="AP21" s="9">
+        <v>45</v>
+      </c>
+      <c r="AQ21" s="9">
+        <v>70</v>
+      </c>
+      <c r="AR21" s="9">
+        <v>70</v>
+      </c>
+      <c r="AS21" s="9">
+        <v>45</v>
+      </c>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+    </row>
+    <row r="22" spans="1:84" ht="24.6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="9">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9">
+        <v>15</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="9">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="9">
+        <v>200</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="9">
+        <v>23</v>
+      </c>
+      <c r="N22" s="9">
+        <v>70</v>
+      </c>
+      <c r="O22" s="9">
+        <v>3</v>
+      </c>
+      <c r="P22" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>2</v>
+      </c>
+      <c r="R22" s="9">
+        <v>90</v>
+      </c>
+      <c r="S22" s="9">
+        <v>6</v>
+      </c>
+      <c r="T22" s="9">
+        <v>30</v>
+      </c>
+      <c r="U22" s="11">
+        <v>100</v>
+      </c>
+      <c r="V22" s="9">
+        <v>15</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>80</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>90</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>30</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>15</v>
+      </c>
+      <c r="AI22" s="9">
+        <v>15</v>
+      </c>
+      <c r="AJ22" s="9">
+        <v>60</v>
+      </c>
+      <c r="AK22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="9">
+        <v>45</v>
+      </c>
+      <c r="AM22" s="9">
+        <v>15</v>
+      </c>
+      <c r="AN22" s="9">
+        <v>10</v>
+      </c>
+      <c r="AO22" s="9">
+        <v>6</v>
+      </c>
+      <c r="AP22" s="9">
+        <v>45</v>
+      </c>
+      <c r="AQ22" s="9">
+        <v>70</v>
+      </c>
+      <c r="AR22" s="9">
+        <v>70</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>120</v>
+      </c>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
+    </row>
+    <row r="23" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="9">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9">
+        <v>45</v>
+      </c>
+      <c r="E23" s="9">
+        <v>8</v>
+      </c>
+      <c r="F23" s="9">
+        <v>15</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="9">
+        <v>15</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" s="9">
+        <v>30</v>
+      </c>
+      <c r="P23" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R23" s="9">
+        <v>90</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="T23" s="9">
+        <v>15</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V23" s="9">
+        <v>15</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>50</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>15</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN23" s="9">
+        <v>10</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP23" s="9">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="9">
+        <v>30</v>
+      </c>
+      <c r="AR23" s="9">
+        <v>50</v>
+      </c>
+      <c r="AS23" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+    </row>
+    <row r="24" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="9">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="9">
+        <v>8</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="9">
+        <v>15</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T24" s="9">
+        <v>90</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH24" s="9">
+        <v>15</v>
+      </c>
+      <c r="AI24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS24" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+    </row>
+    <row r="25" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="9">
+        <v>90</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="9">
+        <v>8</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T25" s="9">
+        <v>2</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM25" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
+      <c r="BH25" s="9"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="9"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="9"/>
+      <c r="BQ25" s="9"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+      <c r="BW25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="9"/>
+      <c r="BZ25" s="9"/>
+      <c r="CA25" s="9"/>
+      <c r="CB25" s="9"/>
+      <c r="CC25" s="9"/>
+      <c r="CD25" s="9"/>
+      <c r="CE25" s="9"/>
+      <c r="CF25" s="9"/>
+    </row>
+    <row r="26" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="9">
+        <v>30</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="9">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
+    </row>
+    <row r="27" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="9">
+        <v>230</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="9">
+        <v>8</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9"/>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="9"/>
+      <c r="BK27" s="9"/>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="9"/>
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="9"/>
+      <c r="BQ27" s="9"/>
+      <c r="BR27" s="9"/>
+      <c r="BS27" s="9"/>
+      <c r="BT27" s="9"/>
+      <c r="BU27" s="9"/>
+      <c r="BV27" s="9"/>
+      <c r="BW27" s="9"/>
+      <c r="BX27" s="9"/>
+      <c r="BY27" s="9"/>
+      <c r="BZ27" s="9"/>
+      <c r="CA27" s="9"/>
+      <c r="CB27" s="9"/>
+      <c r="CC27" s="9"/>
+      <c r="CD27" s="9"/>
+      <c r="CE27" s="9"/>
+      <c r="CF27" s="9"/>
+    </row>
+    <row r="28" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9"/>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9"/>
+      <c r="BL28" s="9"/>
+      <c r="BM28" s="9"/>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="9"/>
+      <c r="BP28" s="9"/>
+      <c r="BQ28" s="9"/>
+      <c r="BR28" s="9"/>
+      <c r="BS28" s="9"/>
+      <c r="BT28" s="9"/>
+      <c r="BU28" s="9"/>
+      <c r="BV28" s="9"/>
+      <c r="BW28" s="9"/>
+      <c r="BX28" s="9"/>
+      <c r="BY28" s="9"/>
+      <c r="BZ28" s="9"/>
+      <c r="CA28" s="9"/>
+      <c r="CB28" s="9"/>
+      <c r="CC28" s="9"/>
+      <c r="CD28" s="9"/>
+      <c r="CE28" s="9"/>
+      <c r="CF28" s="9"/>
+    </row>
+    <row r="29" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="9"/>
+      <c r="BF29" s="9"/>
+      <c r="BG29" s="9"/>
+      <c r="BH29" s="9"/>
+      <c r="BI29" s="9"/>
+      <c r="BJ29" s="9"/>
+      <c r="BK29" s="9"/>
+      <c r="BL29" s="9"/>
+      <c r="BM29" s="9"/>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="9"/>
+      <c r="BQ29" s="9"/>
+      <c r="BR29" s="9"/>
+      <c r="BS29" s="9"/>
+      <c r="BT29" s="9"/>
+      <c r="BU29" s="9"/>
+      <c r="BV29" s="9"/>
+      <c r="BW29" s="9"/>
+      <c r="BX29" s="9"/>
+      <c r="BY29" s="9"/>
+      <c r="BZ29" s="9"/>
+      <c r="CA29" s="9"/>
+      <c r="CB29" s="9"/>
+      <c r="CC29" s="9"/>
+      <c r="CD29" s="9"/>
+      <c r="CE29" s="9"/>
+      <c r="CF29" s="9"/>
+    </row>
+    <row r="30" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="9"/>
+      <c r="BE30" s="9"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="9"/>
+      <c r="BH30" s="9"/>
+      <c r="BI30" s="9"/>
+      <c r="BJ30" s="9"/>
+      <c r="BK30" s="9"/>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="9"/>
+      <c r="BN30" s="9"/>
+      <c r="BO30" s="9"/>
+      <c r="BP30" s="9"/>
+      <c r="BQ30" s="9"/>
+      <c r="BR30" s="9"/>
+      <c r="BS30" s="9"/>
+      <c r="BT30" s="9"/>
+      <c r="BU30" s="9"/>
+      <c r="BV30" s="9"/>
+      <c r="BW30" s="9"/>
+      <c r="BX30" s="9"/>
+      <c r="BY30" s="9"/>
+      <c r="BZ30" s="9"/>
+      <c r="CA30" s="9"/>
+      <c r="CB30" s="9"/>
+      <c r="CC30" s="9"/>
+      <c r="CD30" s="9"/>
+      <c r="CE30" s="9"/>
+      <c r="CF30" s="9"/>
+    </row>
+    <row r="31" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="9"/>
+      <c r="BP31" s="9"/>
+      <c r="BQ31" s="9"/>
+      <c r="BR31" s="9"/>
+      <c r="BS31" s="9"/>
+      <c r="BT31" s="9"/>
+      <c r="BU31" s="9"/>
+      <c r="BV31" s="9"/>
+      <c r="BW31" s="9"/>
+      <c r="BX31" s="9"/>
+      <c r="BY31" s="9"/>
+      <c r="BZ31" s="9"/>
+      <c r="CA31" s="9"/>
+      <c r="CB31" s="9"/>
+      <c r="CC31" s="9"/>
+      <c r="CD31" s="9"/>
+      <c r="CE31" s="9"/>
+      <c r="CF31" s="9"/>
+    </row>
+    <row r="32" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BY32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CD32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF32" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BY33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CD33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF33" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BY34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CD34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF34" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="9"/>
+      <c r="BC35" s="9"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="9"/>
+      <c r="BF35" s="9"/>
+      <c r="BG35" s="9"/>
+      <c r="BH35" s="9"/>
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="9"/>
+      <c r="BK35" s="9"/>
+      <c r="BL35" s="9"/>
+      <c r="BM35" s="9"/>
+      <c r="BN35" s="9"/>
+      <c r="BO35" s="9"/>
+      <c r="BP35" s="9"/>
+      <c r="BQ35" s="9"/>
+      <c r="BR35" s="9"/>
+      <c r="BS35" s="9"/>
+      <c r="BT35" s="9"/>
+      <c r="BU35" s="9"/>
+      <c r="BV35" s="9"/>
+      <c r="BW35" s="9"/>
+      <c r="BX35" s="9"/>
+      <c r="BY35" s="9"/>
+      <c r="BZ35" s="9"/>
+      <c r="CA35" s="9"/>
+      <c r="CB35" s="9"/>
+      <c r="CC35" s="9"/>
+      <c r="CD35" s="9"/>
+      <c r="CE35" s="9"/>
+      <c r="CF35" s="9"/>
+    </row>
+    <row r="36" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="9"/>
+      <c r="BC36" s="9"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="9"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="9"/>
+      <c r="BI36" s="9"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9"/>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="9"/>
+      <c r="BN36" s="9"/>
+      <c r="BO36" s="9"/>
+      <c r="BP36" s="9"/>
+      <c r="BQ36" s="9"/>
+      <c r="BR36" s="9"/>
+      <c r="BS36" s="9"/>
+      <c r="BT36" s="9"/>
+      <c r="BU36" s="9"/>
+      <c r="BV36" s="9"/>
+      <c r="BW36" s="9"/>
+      <c r="BX36" s="9"/>
+      <c r="BY36" s="9"/>
+      <c r="BZ36" s="9"/>
+      <c r="CA36" s="9"/>
+      <c r="CB36" s="9"/>
+      <c r="CC36" s="9"/>
+      <c r="CD36" s="9"/>
+      <c r="CE36" s="9"/>
+      <c r="CF36" s="9"/>
+    </row>
+    <row r="37" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="9"/>
+      <c r="BH37" s="9"/>
+      <c r="BI37" s="9"/>
+      <c r="BJ37" s="9"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="9"/>
+      <c r="BN37" s="9"/>
+      <c r="BO37" s="9"/>
+      <c r="BP37" s="9"/>
+      <c r="BQ37" s="9"/>
+      <c r="BR37" s="9"/>
+      <c r="BS37" s="9"/>
+      <c r="BT37" s="9"/>
+      <c r="BU37" s="9"/>
+      <c r="BV37" s="9"/>
+      <c r="BW37" s="9"/>
+      <c r="BX37" s="9"/>
+      <c r="BY37" s="9"/>
+      <c r="BZ37" s="9"/>
+      <c r="CA37" s="9"/>
+      <c r="CB37" s="9"/>
+      <c r="CC37" s="9"/>
+      <c r="CD37" s="9"/>
+      <c r="CE37" s="9"/>
+      <c r="CF37" s="9"/>
+    </row>
+    <row r="38" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="9"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="9"/>
+      <c r="BN38" s="9"/>
+      <c r="BO38" s="9"/>
+      <c r="BP38" s="9"/>
+      <c r="BQ38" s="9"/>
+      <c r="BR38" s="9"/>
+      <c r="BS38" s="9"/>
+      <c r="BT38" s="9"/>
+      <c r="BU38" s="9"/>
+      <c r="BV38" s="9"/>
+      <c r="BW38" s="9"/>
+      <c r="BX38" s="9"/>
+      <c r="BY38" s="9"/>
+      <c r="BZ38" s="9"/>
+      <c r="CA38" s="9"/>
+      <c r="CB38" s="9"/>
+      <c r="CC38" s="9"/>
+      <c r="CD38" s="9"/>
+      <c r="CE38" s="9"/>
+      <c r="CF38" s="9"/>
+    </row>
+    <row r="39" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="9"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="9"/>
+      <c r="BH39" s="9"/>
+      <c r="BI39" s="9"/>
+      <c r="BJ39" s="9"/>
+      <c r="BK39" s="9"/>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="9"/>
+      <c r="BN39" s="9"/>
+      <c r="BO39" s="9"/>
+      <c r="BP39" s="9"/>
+      <c r="BQ39" s="9"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="9"/>
+      <c r="BT39" s="9"/>
+      <c r="BU39" s="9"/>
+      <c r="BV39" s="9"/>
+      <c r="BW39" s="9"/>
+      <c r="BX39" s="9"/>
+      <c r="BY39" s="9"/>
+      <c r="BZ39" s="9"/>
+      <c r="CA39" s="9"/>
+      <c r="CB39" s="9"/>
+      <c r="CC39" s="9"/>
+      <c r="CD39" s="9"/>
+      <c r="CE39" s="9"/>
+      <c r="CF39" s="9"/>
+    </row>
+    <row r="40" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:84" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.4">
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+    </row>
+    <row r="47" spans="1:84" x14ac:dyDescent="0.4">
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+    </row>
+    <row r="48" spans="1:84" x14ac:dyDescent="0.4">
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9"/>
+    </row>
+    <row r="49" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+    </row>
+    <row r="50" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9"/>
+    </row>
+    <row r="51" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+    </row>
+    <row r="52" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="9"/>
+    </row>
+    <row r="53" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="9"/>
+    </row>
+    <row r="54" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="9"/>
+    </row>
+    <row r="55" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="9"/>
+    </row>
+    <row r="56" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="9"/>
+    </row>
+    <row r="57" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="9"/>
+    </row>
+    <row r="58" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="9"/>
+    </row>
+    <row r="59" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+      <c r="AM59" s="9"/>
+    </row>
+    <row r="60" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
+      <c r="AM60" s="9"/>
+    </row>
+    <row r="61" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="9"/>
+    </row>
+    <row r="62" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="9"/>
+    </row>
+    <row r="63" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+    </row>
+    <row r="64" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+    </row>
+    <row r="65" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
+    </row>
+    <row r="66" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="9"/>
+    </row>
+    <row r="67" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="9"/>
+      <c r="AM67" s="9"/>
+    </row>
+    <row r="68" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="9"/>
+      <c r="AM68" s="9"/>
+    </row>
+    <row r="69" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="9"/>
+    </row>
+    <row r="70" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="9"/>
+    </row>
+    <row r="71" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
+      <c r="AM71" s="9"/>
+    </row>
+    <row r="72" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="9"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="9"/>
+      <c r="AM72" s="9"/>
+    </row>
+    <row r="73" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="9"/>
+    </row>
+    <row r="74" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="9"/>
+      <c r="AM74" s="9"/>
+    </row>
+    <row r="75" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="9"/>
+      <c r="AM75" s="9"/>
+    </row>
+    <row r="76" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
+      <c r="AM76" s="9"/>
+    </row>
+    <row r="77" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+      <c r="AJ77" s="9"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="9"/>
+      <c r="AM77" s="9"/>
+    </row>
+    <row r="78" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="9"/>
+      <c r="AI78" s="9"/>
+      <c r="AJ78" s="9"/>
+      <c r="AK78" s="9"/>
+      <c r="AL78" s="9"/>
+      <c r="AM78" s="9"/>
+    </row>
+    <row r="79" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="9"/>
+      <c r="AJ79" s="9"/>
+      <c r="AK79" s="9"/>
+      <c r="AL79" s="9"/>
+      <c r="AM79" s="9"/>
+    </row>
+    <row r="80" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="9"/>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="9"/>
+      <c r="AI80" s="9"/>
+      <c r="AJ80" s="9"/>
+      <c r="AK80" s="9"/>
+      <c r="AL80" s="9"/>
+      <c r="AM80" s="9"/>
+    </row>
+    <row r="81" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
+      <c r="AI81" s="9"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="9"/>
+      <c r="AM81" s="9"/>
+    </row>
+    <row r="82" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="9"/>
+      <c r="AG82" s="9"/>
+      <c r="AH82" s="9"/>
+      <c r="AI82" s="9"/>
+      <c r="AJ82" s="9"/>
+      <c r="AK82" s="9"/>
+      <c r="AL82" s="9"/>
+      <c r="AM82" s="9"/>
+    </row>
+    <row r="83" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="9"/>
+      <c r="AG83" s="9"/>
+      <c r="AH83" s="9"/>
+      <c r="AI83" s="9"/>
+      <c r="AJ83" s="9"/>
+      <c r="AK83" s="9"/>
+      <c r="AL83" s="9"/>
+      <c r="AM83" s="9"/>
+    </row>
+    <row r="84" spans="20:39" x14ac:dyDescent="0.4">
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="9"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="9"/>
+      <c r="AM84" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69DCDB73-A2BF-4750-940E-67EA25A8DB38}">
+          <x14:formula1>
+            <xm:f>parametrages!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>AS46:AS84 B45:CF45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B82F3FA4-09F6-4326-BF48-983729A14502}">
+          <x14:formula1>
+            <xm:f>parametrages!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>AR46:AR84 B44:CF44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B253B085-5439-488E-80D8-DE77AE835C8D}">
+          <x14:formula1>
+            <xm:f>parametrages!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AQ46:AQ84 B43:CF43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E35B3A84-2C65-4D5B-8D6F-3A9F6B5CEFF0}">
+          <x14:formula1>
+            <xm:f>parametrages!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP46:AP84 B42:CF42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9E45C69-4042-4F1E-89E0-3C92696655DB}">
+          <x14:formula1>
+            <xm:f>parametrages!$G:$G</xm:f>
+          </x14:formula1>
+          <xm:sqref>AO46:AO84 B41:CF41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5E2ACC7-1FDA-4B44-9516-FBB2FA7F4D20}">
+          <x14:formula1>
+            <xm:f>parametrages!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>AN46:AN84 B40:CF40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32035703-CA1B-4341-A715-2EFAD4AD2880}">
+          <x14:formula1>
+            <xm:f>parametrages!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>AM46:AM84 B39:CF39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ADE4AED3-5097-4E1F-8986-F14EAFCF8A29}">
+          <x14:formula1>
+            <xm:f>parametrages!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>AL46:AL84 B38:CF38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D2B26EAF-D4E6-4438-A118-7E7F06E727F5}">
+          <x14:formula1>
+            <xm:f>parametrages!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>AK46:AK84 B37:CF37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79ED262B-4B45-41BD-A8ED-FD052D3D84F3}">
+          <x14:formula1>
+            <xm:f>parametrages!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>AJ46:AJ84 B36:CF36</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70123981-1B50-4C43-B5C4-5430354ED5EA}">
+          <x14:formula1>
+            <xm:f>parametrages!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI46:AI84 B35:CF35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -15878,7 +22637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
@@ -18555,7 +25314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
